--- a/sample_answer.xlsx
+++ b/sample_answer.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="0" windowWidth="20560" windowHeight="16460"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="17580"/>
   </bookViews>
   <sheets>
     <sheet name="Amortization Table" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Initial Loan Amount</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Pool Duration (Years)</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -1121,11 +1124,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2146929720"/>
-        <c:axId val="2117952232"/>
+        <c:axId val="2117101144"/>
+        <c:axId val="2118103224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2146929720"/>
+        <c:axId val="2117101144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1138,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117952232"/>
+        <c:crossAx val="2118103224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1143,7 +1146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117952232"/>
+        <c:axId val="2118103224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500000.0"/>
@@ -1155,7 +1158,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146929720"/>
+        <c:crossAx val="2117101144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3821,11 +3824,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2117937784"/>
-        <c:axId val="-2146942712"/>
+        <c:axId val="2122004264"/>
+        <c:axId val="-2144449528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2117937784"/>
+        <c:axId val="2122004264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3899,7 +3902,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2146942712"/>
+        <c:crossAx val="-2144449528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3909,7 +3912,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146942712"/>
+        <c:axId val="-2144449528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3954,7 +3957,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117937784"/>
+        <c:crossAx val="2122004264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7439,11 +7442,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2144980360"/>
-        <c:axId val="-2144615752"/>
+        <c:axId val="-2144683560"/>
+        <c:axId val="-2144697976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2144980360"/>
+        <c:axId val="-2144683560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7517,7 +7520,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144615752"/>
+        <c:crossAx val="-2144697976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7527,7 +7530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144615752"/>
+        <c:axId val="-2144697976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7572,7 +7575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144980360"/>
+        <c:crossAx val="-2144683560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7662,7 +7665,7 @@
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
+  <sheetPr codeName="Chart1"/>
   <sheetViews>
     <sheetView zoomScale="192" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
@@ -7673,7 +7676,7 @@
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
+  <sheetPr codeName="Chart2"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
@@ -7686,7 +7689,7 @@
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
+  <sheetPr codeName="Chart3"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
@@ -8064,10 +8067,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AG498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A952" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A889" workbookViewId="0">
+      <selection activeCell="D904" sqref="D904"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -8094,6 +8098,9 @@
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="2" t="s">

--- a/sample_answer.xlsx
+++ b/sample_answer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="17580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Amortization Table" sheetId="5" r:id="rId1"/>
@@ -1124,11 +1124,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2117101144"/>
-        <c:axId val="2118103224"/>
+        <c:axId val="2040167848"/>
+        <c:axId val="2123936680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2117101144"/>
+        <c:axId val="2040167848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,7 +1138,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118103224"/>
+        <c:crossAx val="2123936680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1146,7 +1146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118103224"/>
+        <c:axId val="2123936680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500000.0"/>
@@ -1158,7 +1158,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117101144"/>
+        <c:crossAx val="2040167848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3824,11 +3824,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2122004264"/>
-        <c:axId val="-2144449528"/>
+        <c:axId val="2111789640"/>
+        <c:axId val="2111795672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2122004264"/>
+        <c:axId val="2111789640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3902,7 +3902,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144449528"/>
+        <c:crossAx val="2111795672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3912,7 +3912,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144449528"/>
+        <c:axId val="2111795672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3957,7 +3957,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122004264"/>
+        <c:crossAx val="2111789640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7442,11 +7442,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2144683560"/>
-        <c:axId val="-2144697976"/>
+        <c:axId val="2111686776"/>
+        <c:axId val="2111694328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2144683560"/>
+        <c:axId val="2111686776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7520,7 +7520,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144697976"/>
+        <c:crossAx val="2111694328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7530,7 +7530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144697976"/>
+        <c:axId val="2111694328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7575,7 +7575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144683560"/>
+        <c:crossAx val="2111686776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8070,8 +8070,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AG498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A889" workbookViewId="0">
-      <selection activeCell="D904" sqref="D904"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -8091,7 +8091,8 @@
     <col min="18" max="18" width="13.5" bestFit="1" customWidth="1"/>
     <col min="19" max="24" width="14" bestFit="1" customWidth="1"/>
     <col min="25" max="29" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15">
@@ -9475,7 +9476,7 @@
         <v>7049.914238348113</v>
       </c>
       <c r="AF27" s="45">
-        <f t="shared" si="14"/>
+        <f>AE27*B27</f>
         <v>77549.056621829237</v>
       </c>
     </row>
@@ -10327,7 +10328,7 @@
         <v>8272.2011176241813</v>
       </c>
       <c r="AF39" s="45">
-        <f t="shared" si="14"/>
+        <f>AE39*B39</f>
         <v>190260.62570535616</v>
       </c>
     </row>

--- a/sample_answer.xlsx
+++ b/sample_answer.xlsx
@@ -7,12 +7,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
-    <sheet name="Amortization Table" sheetId="5" r:id="rId1"/>
-    <sheet name="PSA by Disc Rate" sheetId="7" r:id="rId2"/>
-    <sheet name="FRM Balance Chart" sheetId="4" r:id="rId3"/>
-    <sheet name="Payment Chart" sheetId="6" r:id="rId4"/>
+    <sheet name="Amortization Table" sheetId="1" r:id="rId1"/>
+    <sheet name="PSA by Disc Rate" sheetId="2" r:id="rId2"/>
+    <sheet name="FRM Balance Chart" sheetId="3" r:id="rId3"/>
+    <sheet name="Payment Chart" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Liu Xiao - Personal View" guid="{4363709D-E69A-4B4D-8BA5-19BFDEF0AED7}" mergeInterval="0" personalView="1" yWindow="54" windowWidth="1280" windowHeight="749" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1124,11 +1127,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2040167848"/>
-        <c:axId val="2123936680"/>
+        <c:axId val="2039683016"/>
+        <c:axId val="2040471448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2040167848"/>
+        <c:axId val="2039683016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,7 +1141,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123936680"/>
+        <c:crossAx val="2040471448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1146,7 +1149,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2123936680"/>
+        <c:axId val="2040471448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500000.0"/>
@@ -1158,7 +1161,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2040167848"/>
+        <c:crossAx val="2039683016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3824,11 +3827,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111789640"/>
-        <c:axId val="2111795672"/>
+        <c:axId val="2086518280"/>
+        <c:axId val="2039242040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111789640"/>
+        <c:axId val="2086518280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3902,7 +3905,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2111795672"/>
+        <c:crossAx val="2039242040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3912,7 +3915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111795672"/>
+        <c:axId val="2039242040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3957,7 +3960,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2111789640"/>
+        <c:crossAx val="2086518280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7442,11 +7445,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111686776"/>
-        <c:axId val="2111694328"/>
+        <c:axId val="2039314488"/>
+        <c:axId val="2039321944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111686776"/>
+        <c:axId val="2039314488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7520,7 +7523,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2111694328"/>
+        <c:crossAx val="2039321944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7530,7 +7533,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111694328"/>
+        <c:axId val="2039321944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7575,7 +7578,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2111686776"/>
+        <c:crossAx val="2039314488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7669,6 +7672,9 @@
   <sheetViews>
     <sheetView zoomScale="192" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
+  <customSheetViews>
+    <customSheetView guid="{4363709D-E69A-4B4D-8BA5-19BFDEF0AED7}" scale="192"/>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </chartsheet>
@@ -7680,6 +7686,12 @@
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
+  <customSheetViews>
+    <customSheetView guid="{4363709D-E69A-4B4D-8BA5-19BFDEF0AED7}" scale="80">
+      <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -7693,6 +7705,11 @@
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
+  <customSheetViews>
+    <customSheetView guid="{4363709D-E69A-4B4D-8BA5-19BFDEF0AED7}" scale="85">
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
@@ -7778,6 +7795,27 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7500DD4F-0E77-0743-AF25-F7D6D16B34C8}">
+  <header guid="{7500DD4F-0E77-0743-AF25-F7D6D16B34C8}" dateTime="2015-08-26T21:42:40" maxSheetId="5" userName="Liu Xiao" r:id="rId1">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8172,7 +8210,7 @@
         <v>0.5</v>
       </c>
       <c r="N6" s="27">
-        <f t="dataTable" ref="N6:O10" dt2D="0" dtr="0" r1="C10"/>
+        <f t="dataTable" ref="N6:O10" dt2D="0" dtr="0" r1="C10" ca="1"/>
         <v>1100745.7829188001</v>
       </c>
       <c r="O6" s="28">
@@ -8244,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="35">
-        <f t="dataTable" ref="S7:AC12" dt2D="1" dtr="1" r1="J6" r2="C10" ca="1"/>
+        <f t="dataTable" ref="S7:AC12" dt2D="1" dtr="1" r1="J6" r2="C10"/>
         <v>1354391.8186796003</v>
       </c>
       <c r="T7" s="35">
@@ -42804,6 +42842,13 @@
       <c r="D498" s="6"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{4363709D-E69A-4B4D-8BA5-19BFDEF0AED7}">
+      <selection activeCell="N6" sqref="N6"/>
+      <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
